--- a/admin/새 스프레드시트 문서.xlsx
+++ b/admin/새 스프레드시트 문서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\METLIFE_PROTOTYPE\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875F377B-7B0D-4577-940D-E1A54D3D0B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8CEBFE-97AA-4E5A-9874-338DF17731AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-8880" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43665" yWindow="-3060" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="15">
   <si>
     <t>mb_text</t>
   </si>
@@ -263,6 +263,9 @@
       </rPr>
       <t>{        }</t>
     </r>
+  </si>
+  <si>
+    <t>mb_update</t>
   </si>
 </sst>
 </file>
@@ -630,10 +633,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:C39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -950,6 +953,66 @@
         <v>13</v>
       </c>
     </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
